--- a/docs/omh-heart-rate.xlsx
+++ b/docs/omh-heart-rate.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$10</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>Path</t>
   </si>
@@ -140,10 +140,10 @@
     <t>The SNOMED code represents Pulse rate (observable entity),  reference: http://purl.bioontology.org/ontology/SNOMEDCT/78564009.</t>
   </si>
   <si>
-    <t>properties</t>
-  </si>
-  <si>
-    <t>Observation.code (LOINC code '8867-4' = 'Heart rate')</t>
+    <t>OMH Step Count Schema</t>
+  </si>
+  <si>
+    <t>Observation resource with Observation.code  = LOINC 55423-8 (Heart rate)</t>
   </si>
   <si>
     <t>OmhHeartRate.id</t>
@@ -193,6 +193,19 @@
   </si>
   <si>
     <t>open</t>
+  </si>
+  <si>
+    <t>OmhHeartRate.omhHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition {[CanonicalType[http://www.fhir.org/guides/mfhir/StructureDefinition/omh-header]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The header property represents the header of a data transaction</t>
+  </si>
+  <si>
+    <t>see OmhHeader Mapping tables</t>
   </si>
   <si>
     <t>OmhHeartRate.valueUnit</t>
@@ -215,7 +228,7 @@
     <t>properties.heartRate</t>
   </si>
   <si>
-    <t>Observation.valueQuantity</t>
+    <t>Rule1: IF no descriptiveStatistic (descriptiveStatistic.empty()) Observation.valueQuantity.value ELSE Observation.component.valueQuantity.value</t>
   </si>
   <si>
     <t>OmhHeartRate.effectiveTimeFrame</t>
@@ -256,7 +269,7 @@
     <t>properties.descriptiveStatistic</t>
   </si>
   <si>
-    <t>Observation.code.coding (translation to more specific code) or Observation.component (component observation code value pair)</t>
+    <t>Observation.component.code</t>
   </si>
   <si>
     <t>OmhHeartRate.temporalRelationshipToPhysicalActivity</t>
@@ -272,6 +285,9 @@
   </si>
   <si>
     <t>properties.temporalRelationshipToPhysicalActivity</t>
+  </si>
+  <si>
+    <t>Observation.component (ConceptMap to component observation code value pair)</t>
   </si>
   <si>
     <t>OmhHeartRate.temporalRelationshipToSleep</t>
@@ -435,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -480,7 +496,7 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="48.828125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="122.47265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="136.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -932,7 +948,7 @@
         <v>38</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
         <v>38</v>
@@ -982,15 +998,15 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -998,7 +1014,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>44</v>
@@ -1013,11 +1029,11 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1029,7 +1045,7 @@
         <v>38</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="S6" t="s" s="2">
         <v>38</v>
@@ -1079,15 +1095,15 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>68</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1110,11 +1126,11 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1141,13 +1157,13 @@
         <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>38</v>
@@ -1176,15 +1192,15 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1207,11 +1223,11 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1238,13 +1254,13 @@
         <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
         <v>38</v>
@@ -1273,15 +1289,15 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1304,11 +1320,11 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1335,13 +1351,13 @@
         <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y9" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>38</v>
@@ -1370,14 +1386,111 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AK9" t="s" s="2">
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s" s="2">
         <v>76</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG10" s="2"/>
+      <c r="AH10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK9">
+  <autoFilter ref="A1:AK10">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1387,7 +1500,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI8">
+  <conditionalFormatting sqref="A2:AI9">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/omh-heart-rate.xlsx
+++ b/docs/omh-heart-rate.xlsx
@@ -143,7 +143,7 @@
     <t>OMH Step Count Schema</t>
   </si>
   <si>
-    <t>Observation resource with Observation.code  = LOINC 55423-8 (Heart rate)</t>
+    <t>Observation resource with Observation.code  = LOINC 8867-4 (Heart rate)</t>
   </si>
   <si>
     <t>OmhHeartRate.id</t>

--- a/docs/omh-heart-rate.xlsx
+++ b/docs/omh-heart-rate.xlsx
@@ -460,9 +460,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.84765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.91015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
@@ -470,7 +470,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="45.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -483,11 +483,11 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="78.4453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.57421875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="73.3359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.96484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="10.21484375" customWidth="true" bestFit="true" hidden="true"/>
@@ -495,8 +495,8 @@
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="48.828125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="136.8359375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="45.58203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="128.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/omh-heart-rate.xlsx
+++ b/docs/omh-heart-rate.xlsx
@@ -152,7 +152,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -172,7 +172,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -198,7 +198,7 @@
     <t>OmhHeartRate.omhHeader</t>
   </si>
   <si>
-    <t xml:space="preserve">StructureDefinition {[CanonicalType[http://www.fhir.org/guides/mfhir/StructureDefinition/omh-header]]} {[]}
+    <t xml:space="preserve">StructureDefinition {http://www.fhir.org/guides/mfhir/StructureDefinition/omh-header}
 </t>
   </si>
   <si>
@@ -211,7 +211,7 @@
     <t>OmhHeartRate.valueUnit</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[]} {[]}
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
@@ -234,8 +234,8 @@
     <t>OmhHeartRate.effectiveTimeFrame</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>A time frame as a point in time or a time interval.</t>
@@ -250,7 +250,7 @@
     <t>OmhHeartRate.descriptiveStatistic</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -355,67 +355,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -451,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
